--- a/Excel/LoolUpFunctions.xlsx
+++ b/Excel/LoolUpFunctions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_AF\DPBA_D2957\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234074E4-F2D6-4543-9E79-9F7AB26F4F07}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2478C51-2304-4B14-A31C-BF3400B270D9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="7610" windowHeight="3290" activeTab="1" xr2:uid="{066307F8-7EC8-4024-A9E6-C5A0D500EC66}"/>
   </bookViews>
@@ -1652,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED248439-FCBF-4A50-B1C7-42DEDF174157}">
   <dimension ref="A1:AI86"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="N4" s="10" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,3),"P","A","L")</f>
-        <v>A</v>
+        <v>L</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
@@ -7377,15 +7377,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAA7463-6611-4DF3-A74C-14E70E474A2D}">
   <dimension ref="D4:F5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D2" zoomScale="268" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.90625" customWidth="1"/>
     <col min="5" max="5" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:6" ht="15.5" x14ac:dyDescent="0.35">
@@ -7414,6 +7414,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
